--- a/test_config3.xlsx
+++ b/test_config3.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a83h8zz\Programming2018\site-config-parser\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{346FE7AD-37AB-4C5E-9FB5-BC6F46BFDDF1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A88BD954-ADC0-4336-860C-3363BAF61C66}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9720" tabRatio="521" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="448">
   <si>
     <t>Metrics Metadata</t>
   </si>
@@ -1202,9 +1202,6 @@
     </r>
   </si>
   <si>
-    <t>Overview cannot have a dropdown.</t>
-  </si>
-  <si>
     <t>Imation</t>
   </si>
   <si>
@@ -1410,168 +1407,214 @@
     </r>
   </si>
   <si>
-    <t>https://fuzeauth.3m.com/wps/myportal/$project/GMH-364_TypesOfBracesTreatment_NZ/3M/types-of-braces-and-treatment-nz/</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>GMH-364_TypesOfBracesTreatment_NZ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Types of Braces</t>
-  </si>
-  <si>
-    <t>Types of Braces</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Clear Braces</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Clear Braces for Adults</t>
-  </si>
-  <si>
-    <t>Clear Braces for Adults</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Clear Braces for Teens</t>
-  </si>
-  <si>
-    <t>Clear Braces for Teens</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Metal Braces</t>
-  </si>
-  <si>
-    <t>Metal Braces</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Invisible Braces</t>
-  </si>
-  <si>
-    <t>Invisible Braces</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Hidden Headgear</t>
-  </si>
-  <si>
-    <t>Hidden Headgear</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>How Braces Work</t>
-  </si>
-  <si>
-    <t>Good to Know</t>
-  </si>
-  <si>
-    <t>Getting Started with Braces</t>
-  </si>
-  <si>
-    <t>Life with Braces</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Find an Orthodontist</t>
-  </si>
-  <si>
-    <t>Find an Orthodontist</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_GettingStartedWithBraces]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_ClearBraces]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_ClearBraces_ClearBracesForAdults]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_ClearBraces_ClearBracesForTeens]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_MetalBraces]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_InvisibleBraces]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_HiddenHeadgear]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_HowBracesWork]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_LifeWithBraces]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Contact Us</t>
+    <t>DCSext.MktExpertise</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>DCSext.SubMarket</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Safety &amp; Graphics Business Group</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Products</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaning Supplies &amp; Tools</t>
+  </si>
+  <si>
+    <t>Floor Safety</t>
+  </si>
+  <si>
+    <t>View All</t>
+  </si>
+  <si>
+    <t>Applications</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Commercial Kitchen</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Hospitality</t>
+  </si>
+  <si>
+    <t>Retail</t>
+  </si>
+  <si>
+    <t>Video Library</t>
+  </si>
+  <si>
+    <t>Training</t>
+  </si>
+  <si>
+    <t>Resource Library</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Resources</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[URL.HCB_TypesofBracesandTreatment_NZ_FindAnOrthodontist]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[URL.HCB_TypesofBracesandTreatment_NZ_ContactUs]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[URL.HCB_TypesofBracesandTreatment_NZ_MetalBraces]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[URL.HCB_TypesofBracesandTreatment_NZ_ClearBraces_ClearBracesForAdults]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[URL.HCB_TypesofBracesandTreatment_NZ_ClearBraces_ClearBracesForTeens]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[URL.HCB_TypesofBracesandTreatment_NZ_InvisibleBraces]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>[URL.HCB_TypesofBracesandTreatment_NZ_HiddenHeadgear]</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>HCB_TypesofBracesandTreatment_NZ</t>
-  </si>
-  <si>
-    <t>en_NZ</t>
-  </si>
-  <si>
-    <t>[HCB_TypesofBracesandTreatment_NZ_FindAnOrthodontist]</t>
-  </si>
-  <si>
-    <t>Dental</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/?N=5002385+8709314%208710653+8710714+8711017&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Floor-Safety/Commercial-Solutions/?N=5002385+8709314+8709339+8710653+8711017+8721829&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Commercial-Solutions/Commercial-Cleaning/?N=5002385+8709314+8709339+8711017&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733509&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733510&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733506&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733508&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SGB_CommercialCleaning_IN_Resources]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SGB_CommercialCleaning_IN_Resources_VideoLibrary]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[SGB_CommercialCleaning_IN_Resources_Training]</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cleaning Chemicals &amp; Dispensing Systems</t>
+  </si>
+  <si>
+    <t>Dusting Tools</t>
+  </si>
+  <si>
+    <t>Floor Cleaning Tools &amp; Flat Mops</t>
+  </si>
+  <si>
+    <t>Floor Pads &amp; Brushes</t>
+  </si>
+  <si>
+    <t>Griddle &amp; Appliance Cleaning</t>
+  </si>
+  <si>
+    <t>Hand Pads, Sponges &amp; Cloths</t>
+  </si>
+  <si>
+    <t>Cleaning: Sorbents &amp; Spill Management</t>
+  </si>
+  <si>
+    <t>Anti-Slip Tapes &amp; Treads</t>
+  </si>
+  <si>
+    <t>Floor Mats</t>
+  </si>
+  <si>
+    <t>Safety: Sorbents &amp; Spill Management</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/Cleaning-Chemicals/?N=5002385+8709314+8710653+8710714+8711017+8718922&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/Dusting-Tools/?N=5002385+8709314+8710653+8710714+8711017+8729459&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/Floor-Pads/?N=5002385+8709314+8710653+8710714+8711017+8718924&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/Griddle-Appliance-Cleaning/?N=5002385+8709314+8710653+8710714+8711017+8718926&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Floor-Safety/Commercial-Solutions/Anti-Slip-Tapes-Treads/?N=5002385+8709314+8710653+8711017+8718931+8721829&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Floor-Safety/Commercial-Solutions/Floor-Mats/?N=5002385+8709314+8710653+8711017+8721829+8729402&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/Sorbents-Spill-Management/?N=5002385+8709314+8710653+8710714+8711017+8718928</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Floor-Safety/Commercial-Solutions/Sorbents-Spill-Management/?N=5002385+8709314+8710653+8711017+8718928+8721829</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733509&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733510&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733506&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Commercial-Solutions/?N=5002385+8709314+8710653+8711017+8733508&amp;rt=r3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://fuzeauth.3m.com/wps/myportal/en_IN/$project/GMS-85_CommercialCleaning_IN_SSN/3M/commercial-cleaning-in/</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>GMS-85_CommercialCleaning_IN_SSN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGB_CommercialCleaning_IN</t>
+  </si>
+  <si>
+    <t>en_IN</t>
+  </si>
+  <si>
+    <t>[SGB_CommercialCleaning_IN_Resources_ResourcesLibrary]</t>
+  </si>
+  <si>
+    <t>[URL.CORP_FUZEExp_IN_All3MProducts~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/Hand-Pads-Sponges-Cloths/?N=5002385+8709314+8710653+8710714+8711017+8718927&amp;rt=r3</t>
+  </si>
+  <si>
+    <t>URL.CORP_FUZEExp_IN_All3MProducts]~/All-3M-Products/Facility-Cleaning-Maintenance/Cleaning-Supplies-Tools/Commercial-Solutions/Floor-Cleaning-Dusting/?N=5002385+8709314+8710653+8710714+8711017+8718925&amp;rt=r3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1701,12 +1744,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1908,11 +1945,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2009,11 +2045,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="3" xr:uid="{3BC8501A-AAC0-4724-ACB3-3A0F2F9863C4}"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
@@ -2875,17 +2910,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F111"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:F112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="46.5703125" customWidth="1"/>
-    <col min="2" max="2" width="54.5703125" customWidth="1"/>
-    <col min="3" max="3" width="73.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="64" customWidth="1"/>
     <col min="4" max="5" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" customWidth="1"/>
     <col min="7" max="7" width="43" customWidth="1"/>
@@ -2917,7 +2953,7 @@
         <v>108</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C3" s="43"/>
     </row>
@@ -2926,7 +2962,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="C4" s="43"/>
     </row>
@@ -2935,7 +2971,7 @@
         <v>7</v>
       </c>
       <c r="B5" s="50" t="s">
-        <v>392</v>
+        <v>441</v>
       </c>
       <c r="C5" s="43"/>
     </row>
@@ -2944,7 +2980,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
       <c r="C6" s="43"/>
     </row>
@@ -2981,7 +3017,7 @@
         <v>179</v>
       </c>
       <c r="C11" s="46" t="s">
-        <v>197</v>
+        <v>393</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="42" customFormat="1">
@@ -2990,32 +3026,26 @@
         <v>180</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>181</v>
-      </c>
+        <v>391</v>
+      </c>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3">
       <c r="B14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>229</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3">
       <c r="B15" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>434</v>
-      </c>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
@@ -3077,7 +3107,7 @@
     </row>
     <row r="25" spans="1:3" s="4" customFormat="1" ht="18.75">
       <c r="A25" s="49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="49"/>
@@ -3091,7 +3121,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -3123,7 +3153,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3167,11 +3197,11 @@
       <c r="A37" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B37" s="46" t="s">
+      <c r="B37" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>329</v>
+      <c r="C37" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D37" s="45"/>
     </row>
@@ -3180,7 +3210,7 @@
         <v>124</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>311</v>
@@ -3192,10 +3222,10 @@
         <v>125</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>311</v>
+        <v>20</v>
       </c>
       <c r="D39" s="7"/>
     </row>
@@ -3204,7 +3234,7 @@
         <v>126</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>20</v>
@@ -3259,9 +3289,9 @@
         <v>313</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="C46" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C46" s="15" t="s">
         <v>129</v>
       </c>
     </row>
@@ -3270,10 +3300,10 @@
         <v>76</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -3281,10 +3311,10 @@
         <v>77</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -3292,510 +3322,561 @@
         <v>78</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" s="15" t="s">
-        <v>402</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>417</v>
-      </c>
+      <c r="A50" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C50" s="15"/>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B53" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="C53" s="7"/>
+      <c r="A53" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>421</v>
-      </c>
+      <c r="A56" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="C56" s="15"/>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
+        <v>76</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="40" t="s">
-        <v>313</v>
-      </c>
-      <c r="B58" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="C58" s="7"/>
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>417</v>
+      </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>76</v>
-      </c>
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-    </row>
-    <row r="61" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A61" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A62" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="48" t="s">
+      <c r="B62" s="48" t="s">
         <v>325</v>
       </c>
-      <c r="C61" s="47"/>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6" t="s">
+      <c r="C62" s="47"/>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="7"/>
-      <c r="C63" s="7"/>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
     </row>
-    <row r="69" spans="1:3" s="4" customFormat="1" ht="18.75">
-      <c r="A69" s="47" t="s">
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>119</v>
+      </c>
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+    </row>
+    <row r="70" spans="1:3" s="4" customFormat="1" ht="18.75">
+      <c r="A70" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="B69" s="48" t="s">
+      <c r="B70" s="48" t="s">
         <v>321</v>
       </c>
-      <c r="C69" s="47"/>
-    </row>
-    <row r="70" spans="1:3" ht="25.5">
-      <c r="A70" s="16" t="s">
+      <c r="C70" s="47"/>
+    </row>
+    <row r="71" spans="1:3" ht="25.5">
+      <c r="A71" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B71" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C70" s="6"/>
-    </row>
-    <row r="71" spans="1:3" s="41" customFormat="1">
-      <c r="A71" t="s">
+      <c r="C71" s="6"/>
+    </row>
+    <row r="72" spans="1:3" s="41" customFormat="1">
+      <c r="A72" t="s">
         <v>102</v>
       </c>
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="6" t="s">
+      <c r="B72" s="15"/>
+      <c r="C72" s="15"/>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B74" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:3" s="41" customFormat="1">
-      <c r="A74" t="s">
+    <row r="75" spans="1:3" s="41" customFormat="1">
+      <c r="A75" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="46" t="s">
+      <c r="B75" s="7" t="s">
         <v>394</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="2" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>429</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>114</v>
+      <c r="B81" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B82" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>73</v>
+        <v>28</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="11" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="11" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
+        <v>146</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
+      <c r="A86" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
+        <v>18</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
+        <v>23</v>
+      </c>
+      <c r="B89" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
+        <v>24</v>
+      </c>
+      <c r="B90" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
+        <v>25</v>
+      </c>
+      <c r="B91" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
+        <v>26</v>
+      </c>
+      <c r="B92" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="B93" s="15"/>
       <c r="C93" s="15"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11" t="s">
-        <v>148</v>
+        <v>28</v>
       </c>
       <c r="B94" s="15"/>
       <c r="C94" s="15"/>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B95" s="15"/>
+      <c r="C95" s="15"/>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B96" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B96" s="7"/>
-      <c r="C96" s="2" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="B97" s="7"/>
+      <c r="C97" s="2" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B98" s="15"/>
       <c r="C98" s="15"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-    </row>
-    <row r="99" spans="1:6" s="4" customFormat="1" ht="18.75">
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B99" s="15"/>
       <c r="C99" s="15"/>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="D99" s="10"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+    </row>
+    <row r="100" spans="1:6" s="4" customFormat="1" ht="18.75">
       <c r="A100" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B100" s="15"/>
       <c r="C100" s="15"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B101" s="15"/>
       <c r="C101" s="15"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B103" s="15"/>
       <c r="C103" s="15"/>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="11" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="B105" s="15"/>
       <c r="C105" s="15"/>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="11" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="B106" s="15"/>
       <c r="C106" s="15"/>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B107" s="15"/>
       <c r="C107" s="15"/>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B108" s="15"/>
       <c r="C108" s="15"/>
     </row>
-    <row r="110" spans="1:6" ht="18.75">
-      <c r="A110" s="47" t="s">
+    <row r="109" spans="1:6">
+      <c r="A109" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+    </row>
+    <row r="111" spans="1:6" ht="18.75">
+      <c r="A111" s="47" t="s">
         <v>315</v>
       </c>
-      <c r="B110" s="48" t="s">
+      <c r="B111" s="48" t="s">
         <v>326</v>
       </c>
-      <c r="C110" s="47"/>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" s="6" t="s">
+      <c r="C111" s="47"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B111" s="7"/>
+      <c r="B112" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3803,9 +3884,8 @@
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A33:B33"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
-  <dataValidations count="6">
-    <dataValidation errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Footer Headings Are Unlinked" error="Footer section headings cannot be linked to anything in FUZE v2." sqref="C74" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>BusinessGroups</formula1>
     </dataValidation>
@@ -3818,19 +3898,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="C14" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>SubCatList</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Overview Dropdown" error="The &quot;Overview&quot; link is a static link that points to a site's homepage, and cannot be turned into a dropdown." sqref="C37" xr:uid="{00000000-0002-0000-0000-000005000000}">
-      <formula1>"Overview cannot have a dropdown."</formula1>
-    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B69" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B70" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="B8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="B24" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="C33" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B61" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="B110" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B5" r:id="rId8" xr:uid="{7CE2FB66-9225-432B-80FC-218DB61A443D}"/>
+    <hyperlink ref="B62" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B111" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{3072D42A-D622-480E-A647-5E573561B362}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId9"/>
@@ -3851,13 +3928,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView topLeftCell="A89" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4939,6 +5016,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P87"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -5069,7 +5147,7 @@
         <v>193</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D4" s="30" t="s">
         <v>249</v>
@@ -5253,7 +5331,7 @@
         <v>199</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D8" s="30" t="s">
         <v>250</v>
@@ -5294,10 +5372,10 @@
         <v>186</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D9" s="31"/>
       <c r="E9" s="23" t="s">
@@ -5334,7 +5412,7 @@
         <v>187</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="31"/>
       <c r="E10" s="23" t="s">
@@ -5367,7 +5445,7 @@
         <v>188</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="37"/>
@@ -5392,7 +5470,7 @@
         <v>189</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -5406,7 +5484,7 @@
         <v>190</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -5419,7 +5497,7 @@
     </row>
     <row r="15" spans="1:16">
       <c r="C15" s="22" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -5434,7 +5512,7 @@
     </row>
     <row r="18" spans="3:5">
       <c r="C18" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="19" spans="3:5">
@@ -5459,17 +5537,17 @@
     </row>
     <row r="23" spans="3:5">
       <c r="C23" s="22" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="C24" s="22" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="C25" s="22" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E25" t="s">
         <v>20</v>
@@ -5477,7 +5555,7 @@
     </row>
     <row r="26" spans="3:5">
       <c r="C26" s="22" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E26" t="s">
         <v>310</v>
@@ -5485,7 +5563,7 @@
     </row>
     <row r="27" spans="3:5">
       <c r="C27" s="22" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E27" t="s">
         <v>311</v>
@@ -5493,47 +5571,47 @@
     </row>
     <row r="28" spans="3:5">
       <c r="C28" s="22" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="C29" s="22" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="C30" s="22" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="C32" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="C33" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="C34" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="C35" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="C36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -5565,7 +5643,7 @@
         <v>86</v>
       </c>
       <c r="C40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -5573,7 +5651,7 @@
         <v>306</v>
       </c>
       <c r="C41" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -5588,7 +5666,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="C44" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -5598,57 +5676,57 @@
     </row>
     <row r="46" spans="1:3">
       <c r="C46" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="C47" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="C48" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="3:3">
@@ -5683,7 +5761,7 @@
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="64" spans="3:3">
@@ -5693,7 +5771,7 @@
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="66" spans="3:3">
@@ -5703,7 +5781,7 @@
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="68" spans="3:3">
@@ -5713,12 +5791,12 @@
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="3:3">
@@ -5728,82 +5806,82 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="78" spans="3:3">
       <c r="C78" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5818,6 +5896,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
